--- a/financial_models/Opportunities/1382.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/1382.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B055418-0F9A-4251-9FB5-66AAF5CB9CD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435DD9BE-DC40-4EDB-8E0E-FAC9D6A710C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="357">
   <si>
     <t>Company Info:</t>
   </si>
@@ -1228,6 +1228,30 @@
   </si>
   <si>
     <t>non-perishable</t>
+  </si>
+  <si>
+    <t>What Went Wrong?</t>
+  </si>
+  <si>
+    <t>Can it be Fixed?</t>
+  </si>
+  <si>
+    <t>DuPont Formula</t>
+  </si>
+  <si>
+    <t>EBIT / Sales</t>
+  </si>
+  <si>
+    <t>Sales / Total Assets</t>
+  </si>
+  <si>
+    <t>Total Assets / Common Equity</t>
+  </si>
+  <si>
+    <t>ROE = EBIT / Common Equity</t>
+  </si>
+  <si>
+    <t>SGR = b * ROE</t>
   </si>
 </sst>
 </file>
@@ -1614,7 +1638,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="111">
+  <borders count="121">
     <border>
       <left/>
       <right/>
@@ -3008,13 +3032,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="26" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="454">
+  <cellXfs count="469">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4157,13 +4307,66 @@
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="19">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4546,10 +4749,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L965"/>
+  <dimension ref="A1:L967"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:D5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -4836,7 +5039,7 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
-        <f ca="1">I35/B16-(1+J25)</f>
+        <f ca="1">I37/B16-(1+J27)</f>
         <v>-0.58448103701069243</v>
       </c>
       <c r="E16" s="396" t="s">
@@ -4863,12 +5066,12 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
       <c r="B17" s="269">
-        <f ca="1">(I35+I36)/2</f>
+        <f ca="1">(I37+I38)/2</f>
         <v>0.94357817908248853</v>
       </c>
       <c r="C17" s="406"/>
       <c r="D17" s="268">
-        <f ca="1">I35/B17-(1+J25)</f>
+        <f ca="1">I37/B17-(1+J27)</f>
         <v>7.8555602708121341E-2</v>
       </c>
       <c r="E17" s="397"/>
@@ -4886,12 +5089,12 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1">
       <c r="B18" s="323">
-        <f>C35</f>
+        <f>C37</f>
         <v>0.94</v>
       </c>
       <c r="C18" s="407"/>
       <c r="D18" s="157">
-        <f ca="1">I35/B18-(1+J25)</f>
+        <f ca="1">I37/B18-(1+J27)</f>
         <v>8.3422518573449844E-2</v>
       </c>
       <c r="E18" s="398"/>
@@ -4981,289 +5184,291 @@
       <c r="I23" s="395"/>
       <c r="J23" s="395"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="6"/>
-    </row>
-    <row r="25" spans="1:10" ht="15.75" customHeight="1">
-      <c r="A25" s="4"/>
-      <c r="B25" s="20" t="s">
+    <row r="24" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A24" s="6"/>
+      <c r="B24" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="454"/>
+      <c r="D24" s="455"/>
+      <c r="E24" s="455"/>
+      <c r="F24" s="455"/>
+      <c r="G24" s="455"/>
+      <c r="H24" s="455"/>
+      <c r="I24" s="455"/>
+      <c r="J24" s="456"/>
+    </row>
+    <row r="25" spans="1:10" ht="52.5" customHeight="1">
+      <c r="A25" s="6"/>
+      <c r="B25" s="457" t="s">
+        <v>350</v>
+      </c>
+      <c r="C25" s="458"/>
+      <c r="D25" s="459"/>
+      <c r="E25" s="459"/>
+      <c r="F25" s="459"/>
+      <c r="G25" s="459"/>
+      <c r="H25" s="459"/>
+      <c r="I25" s="459"/>
+      <c r="J25" s="460"/>
+    </row>
+    <row r="26" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+    </row>
+    <row r="27" spans="1:10" ht="15.75" customHeight="1">
+      <c r="A27" s="4"/>
+      <c r="B27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D27" s="34">
         <v>660000</v>
       </c>
-      <c r="E25" s="12"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="359" t="s">
+      <c r="E27" s="12"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="359" t="s">
         <v>326</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="358">
+      <c r="I27" s="30"/>
+      <c r="J27" s="358">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B26" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="C26" s="417"/>
-      <c r="D26" s="418"/>
-      <c r="E26" s="402" t="str">
-        <f>IF(C26="","","Action_Planning")</f>
-        <v/>
-      </c>
-      <c r="F26" s="403"/>
-      <c r="G26" s="403"/>
-      <c r="H26" s="404"/>
-      <c r="I26" s="429" t="s">
-        <v>32</v>
-      </c>
-      <c r="J26" s="429"/>
-    </row>
-    <row r="27" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="390">
-        <f>C31/D25</f>
-        <v>0.25636363636363635</v>
-      </c>
-      <c r="D27" s="376"/>
-      <c r="E27" s="389">
-        <f>E31/D25</f>
-        <v>0.13636363636363635</v>
-      </c>
-      <c r="F27" s="376"/>
-      <c r="G27" s="400">
-        <f>G31/D25</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="401"/>
-      <c r="I27" s="399">
-        <f>C27+E27+G27</f>
-        <v>0.3927272727272727</v>
-      </c>
-      <c r="J27" s="399"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1">
       <c r="B28" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="364">
-        <v>180000</v>
-      </c>
-      <c r="D28" s="365"/>
-      <c r="E28" s="364">
-        <v>100000</v>
-      </c>
-      <c r="F28" s="365"/>
-      <c r="G28" s="384"/>
-      <c r="H28" s="385"/>
-      <c r="I28" s="378">
-        <f>C28+E28+G28</f>
-        <v>280000</v>
-      </c>
-      <c r="J28" s="378"/>
+        <v>31</v>
+      </c>
+      <c r="C28" s="417"/>
+      <c r="D28" s="418"/>
+      <c r="E28" s="402" t="str">
+        <f>IF(C28="","","Action_Planning")</f>
+        <v/>
+      </c>
+      <c r="F28" s="403"/>
+      <c r="G28" s="403"/>
+      <c r="H28" s="404"/>
+      <c r="I28" s="429" t="s">
+        <v>32</v>
+      </c>
+      <c r="J28" s="429"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="366">
-        <v>0.94</v>
-      </c>
-      <c r="D29" s="365"/>
-      <c r="E29" s="366">
-        <v>0.9</v>
-      </c>
-      <c r="F29" s="365"/>
-      <c r="G29" s="387"/>
-      <c r="H29" s="388"/>
-      <c r="I29" s="386"/>
-      <c r="J29" s="386"/>
+        <v>33</v>
+      </c>
+      <c r="C29" s="390">
+        <f>C33/D27</f>
+        <v>0.25636363636363635</v>
+      </c>
+      <c r="D29" s="376"/>
+      <c r="E29" s="389">
+        <f>E33/D27</f>
+        <v>0.13636363636363635</v>
+      </c>
+      <c r="F29" s="376"/>
+      <c r="G29" s="400">
+        <f>G33/D27</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="401"/>
+      <c r="I29" s="399">
+        <f>C29+E29+G29</f>
+        <v>0.3927272727272727</v>
+      </c>
+      <c r="J29" s="399"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="364">
+        <v>180000</v>
+      </c>
+      <c r="D30" s="365"/>
+      <c r="E30" s="364">
+        <v>100000</v>
+      </c>
+      <c r="F30" s="365"/>
+      <c r="G30" s="384"/>
+      <c r="H30" s="385"/>
+      <c r="I30" s="378">
+        <f>C30+E30+G30</f>
+        <v>280000</v>
+      </c>
+      <c r="J30" s="378"/>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B31" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="366">
+        <v>0.94</v>
+      </c>
+      <c r="D31" s="365"/>
+      <c r="E31" s="366">
+        <v>0.9</v>
+      </c>
+      <c r="F31" s="365"/>
+      <c r="G31" s="387"/>
+      <c r="H31" s="388"/>
+      <c r="I31" s="386"/>
+      <c r="J31" s="386"/>
+    </row>
+    <row r="32" spans="1:10" ht="15.75" customHeight="1">
+      <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="362">
-        <f>C29*$I$5/1000000</f>
+      <c r="C32" s="362">
+        <f>C31*$I$5/1000000</f>
         <v>1320.2393548799998</v>
       </c>
-      <c r="D30" s="363"/>
-      <c r="E30" s="362">
-        <f>E29*$I$5/1000000</f>
+      <c r="D32" s="363"/>
+      <c r="E32" s="362">
+        <f>E31*$I$5/1000000</f>
         <v>1264.0589568</v>
       </c>
-      <c r="F30" s="363"/>
-      <c r="G30" s="408">
-        <f>G29*$I$5/1000000</f>
+      <c r="F32" s="363"/>
+      <c r="G32" s="408">
+        <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H30" s="409"/>
-      <c r="I30" s="377"/>
-      <c r="J30" s="377"/>
-    </row>
-    <row r="31" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B31" s="2" t="s">
+      <c r="H32" s="409"/>
+      <c r="I32" s="377"/>
+      <c r="J32" s="377"/>
+    </row>
+    <row r="33" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="371">
-        <f>C28*C29</f>
+      <c r="C33" s="371">
+        <f>C30*C31</f>
         <v>169200</v>
       </c>
-      <c r="D31" s="372"/>
-      <c r="E31" s="373">
-        <f>E28*E29</f>
+      <c r="D33" s="372"/>
+      <c r="E33" s="373">
+        <f>E30*E31</f>
         <v>90000</v>
       </c>
-      <c r="F31" s="374"/>
-      <c r="G31" s="410">
-        <f>G28*G29</f>
+      <c r="F33" s="374"/>
+      <c r="G33" s="410">
+        <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H31" s="411"/>
-      <c r="I31" s="373">
-        <f>C31+E31+G31</f>
+      <c r="H33" s="411"/>
+      <c r="I33" s="373">
+        <f>C33+E33+G33</f>
         <v>259200</v>
       </c>
-      <c r="J31" s="373"/>
-    </row>
-    <row r="32" spans="1:10" ht="15.75" customHeight="1">
-      <c r="B32" s="1" t="s">
+      <c r="J33" s="373"/>
+    </row>
+    <row r="34" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C32" s="367"/>
-      <c r="D32" s="368"/>
-      <c r="E32" s="375">
-        <f>IF(C31=0,"-",(C31+E31)/(C28+E28))</f>
+      <c r="C34" s="367"/>
+      <c r="D34" s="368"/>
+      <c r="E34" s="375">
+        <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>0.92571428571428571</v>
       </c>
-      <c r="F32" s="376"/>
-      <c r="G32" s="115"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="375">
-        <f>IF(I31=0,"",I31/I28)</f>
+      <c r="F34" s="376"/>
+      <c r="G34" s="115"/>
+      <c r="H34" s="115"/>
+      <c r="I34" s="375">
+        <f>IF(I33=0,"",I33/I30)</f>
         <v>0.92571428571428571</v>
       </c>
-      <c r="J32" s="375"/>
-    </row>
-    <row r="33" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B33" s="1" t="s">
+      <c r="J34" s="375"/>
+    </row>
+    <row r="35" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C33" s="369"/>
-      <c r="D33" s="370"/>
-      <c r="E33" s="362">
-        <f>IF(E32="-","-",E32*$I$5/1000000)</f>
+      <c r="C35" s="369"/>
+      <c r="D35" s="370"/>
+      <c r="E35" s="362">
+        <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>1300.1749269942859</v>
       </c>
-      <c r="F33" s="363"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="362">
-        <f>IF(I32="","",I32*$I$5/1000000)</f>
+      <c r="F35" s="363"/>
+      <c r="G35" s="116"/>
+      <c r="H35" s="116"/>
+      <c r="I35" s="362">
+        <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>1300.1749269942859</v>
       </c>
-      <c r="J33" s="362"/>
-    </row>
-    <row r="34" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="35" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B35" s="143" t="s">
+      <c r="J35" s="362"/>
+    </row>
+    <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="37" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B37" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C35" s="435">
-        <f>IF(C26="",C29,E29)</f>
+      <c r="C37" s="435">
+        <f>IF(C28="",C31,E31)</f>
         <v>0.94</v>
       </c>
-      <c r="D35" s="436"/>
-      <c r="G35" s="437" t="s">
+      <c r="D37" s="436"/>
+      <c r="G37" s="437" t="s">
         <v>315</v>
       </c>
-      <c r="H35" s="438"/>
-      <c r="I35" s="433">
+      <c r="H37" s="438"/>
+      <c r="I37" s="433">
         <f ca="1">'FCFF Model'!C31</f>
         <v>1.2064171674590427</v>
       </c>
-      <c r="J35" s="434"/>
-    </row>
-    <row r="36" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B36" s="143" t="s">
+      <c r="J37" s="434"/>
+    </row>
+    <row r="38" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B38" s="143" t="s">
         <v>316</v>
       </c>
-      <c r="C36" s="435">
-        <f>IF(C26="",C29,E32)</f>
+      <c r="C38" s="435">
+        <f>IF(C28="",C31,E34)</f>
         <v>0.94</v>
       </c>
-      <c r="D36" s="436"/>
-      <c r="G36" s="432" t="s">
+      <c r="D38" s="436"/>
+      <c r="G38" s="432" t="s">
         <v>313</v>
       </c>
-      <c r="H36" s="432"/>
-      <c r="I36" s="433">
+      <c r="H38" s="432"/>
+      <c r="I38" s="433">
         <f ca="1">'FCFF Model'!C32</f>
         <v>0.68073919070593436</v>
       </c>
-      <c r="J36" s="434"/>
-    </row>
-    <row r="37" spans="2:11" ht="15.75" customHeight="1"/>
-    <row r="38" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B38" s="21" t="s">
+      <c r="J38" s="434"/>
+    </row>
+    <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
+    <row r="40" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B40" s="21" t="s">
         <v>296</v>
       </c>
-      <c r="G38" s="319" t="s">
+      <c r="G40" s="319" t="s">
         <v>134</v>
       </c>
-      <c r="H38" s="130"/>
-      <c r="I38" s="130"/>
-      <c r="J38" s="130"/>
-      <c r="K38" s="324"/>
-    </row>
-    <row r="39" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B39" s="3" t="s">
+      <c r="H40" s="130"/>
+      <c r="I40" s="130"/>
+      <c r="J40" s="130"/>
+      <c r="K40" s="324"/>
+    </row>
+    <row r="41" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B41" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="F39" s="208">
+      <c r="F41" s="208">
         <f>'Qualitative Analysis'!E8</f>
         <v>0.45</v>
-      </c>
-      <c r="G39" s="331"/>
-      <c r="H39" s="114"/>
-      <c r="I39" s="114"/>
-      <c r="J39" s="114"/>
-    </row>
-    <row r="40" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B40" s="3" t="s">
-        <v>297</v>
-      </c>
-      <c r="F40" s="208">
-        <f>80%-(5%*IF(LEFT(D20,2)="St",1,IF(LEFT(D20,2)="Sl",3,IF(LEFT(D20,2)="Cy",4,IF(LEFT(D20,2)="Tu",5,IF(LEFT(D20,2)="Fa",6,0))))))</f>
-        <v>0.65</v>
-      </c>
-      <c r="G40" s="73"/>
-      <c r="H40" s="73"/>
-      <c r="I40" s="73"/>
-      <c r="J40" s="73"/>
-    </row>
-    <row r="41" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B41" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="F41" s="329">
-        <f>'Qualitative Analysis'!E64</f>
-        <v>0.45630102040816323</v>
       </c>
       <c r="G41" s="331"/>
       <c r="H41" s="114"/>
@@ -5272,10 +5477,11 @@
     </row>
     <row r="42" spans="2:11" ht="15.75" customHeight="1">
       <c r="B42" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="F42" s="332">
-        <v>0.5</v>
+        <v>297</v>
+      </c>
+      <c r="F42" s="208">
+        <f>80%-(5%*IF(LEFT(D20,2)="St",2,IF(LEFT(D20,2)="Sl",3,IF(LEFT(D20,2)="Cy",4,IF(LEFT(D20,2)="Tu",5,IF(LEFT(D20,2)="Fa",6,0))))))</f>
+        <v>0.65</v>
       </c>
       <c r="G42" s="73"/>
       <c r="H42" s="73"/>
@@ -5283,149 +5489,172 @@
       <c r="J42" s="73"/>
     </row>
     <row r="43" spans="2:11" ht="15.75" customHeight="1">
-      <c r="G43" s="114"/>
+      <c r="B43" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="F43" s="329">
+        <f>'Qualitative Analysis'!E64</f>
+        <v>0.45630102040816323</v>
+      </c>
+      <c r="G43" s="331"/>
       <c r="H43" s="114"/>
       <c r="I43" s="114"/>
       <c r="J43" s="114"/>
     </row>
     <row r="44" spans="2:11" ht="15.75" customHeight="1">
-      <c r="E44" s="258" t="s">
+      <c r="B44" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F44" s="332">
+        <v>0.5</v>
+      </c>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="73"/>
+    </row>
+    <row r="45" spans="2:11" ht="15.75" customHeight="1">
+      <c r="G45" s="114"/>
+      <c r="H45" s="114"/>
+      <c r="I45" s="114"/>
+      <c r="J45" s="114"/>
+    </row>
+    <row r="46" spans="2:11" ht="15.75" customHeight="1">
+      <c r="E46" s="258" t="s">
         <v>317</v>
       </c>
-      <c r="F44" s="258" t="s">
+      <c r="F46" s="258" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="45" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B45" s="3" t="s">
+    <row r="47" spans="2:11" ht="15.75" customHeight="1">
+      <c r="B47" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="E45" s="329">
-        <f ca="1">I35/C29-1</f>
+      <c r="E47" s="329">
+        <f ca="1">I37/C31-1</f>
         <v>0.2834225185734498</v>
       </c>
-      <c r="F45" s="332">
-        <f ca="1">I35/C36-1</f>
+      <c r="F47" s="332">
+        <f ca="1">I37/C38-1</f>
         <v>0.2834225185734498</v>
       </c>
     </row>
-    <row r="46" spans="2:11" ht="15.75" customHeight="1">
-      <c r="B46" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="E46" s="329">
-        <f ca="1">I36/C29-1</f>
-        <v>-0.27580937158943153</v>
-      </c>
-      <c r="F46" s="332">
-        <f ca="1">I36/C36-1</f>
-        <v>-0.27580937158943153</v>
-      </c>
-    </row>
-    <row r="47" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="48" spans="2:11" ht="15.75" customHeight="1">
       <c r="B48" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="E48" s="352">
-        <f ca="1">IF(E45&lt;=0,0,AVERAGE(F39:F41,1-F42,E45/J25))</f>
-        <v>0.69468272265508246</v>
-      </c>
-      <c r="F48" s="329">
-        <f ca="1">IF(F45&lt;=0,0,AVERAGE(F39:F41,1-F42,F45/J25))</f>
-        <v>0.69468272265508246</v>
-      </c>
-      <c r="G48" s="73"/>
-    </row>
-    <row r="49" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B49" s="3" t="s">
-        <v>301</v>
-      </c>
-      <c r="D49" s="326"/>
-      <c r="E49" s="328">
-        <f ca="1">IF(E46&gt;=0,100,E45/ABS(E46))</f>
-        <v>1.0276029307493988</v>
-      </c>
-      <c r="F49" s="328">
-        <f ca="1">IF(F46&gt;=0,100,F45/ABS(F46))</f>
-        <v>1.0276029307493988</v>
-      </c>
-      <c r="G49" s="73"/>
-    </row>
+        <v>300</v>
+      </c>
+      <c r="E48" s="329">
+        <f ca="1">I38/C31-1</f>
+        <v>-0.27580937158943153</v>
+      </c>
+      <c r="F48" s="332">
+        <f ca="1">I38/C38-1</f>
+        <v>-0.27580937158943153</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="50" spans="2:9" ht="15.75" customHeight="1">
       <c r="B50" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E50" s="357">
-        <f ca="1">MAX(J25*2/E45,1)</f>
-        <v>1.4113204625141273</v>
-      </c>
-      <c r="F50" s="357">
-        <f ca="1">MAX(J25*2/F45,1)</f>
-        <v>1.4113204625141273</v>
-      </c>
-      <c r="G50" s="330"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
+        <v>302</v>
+      </c>
+      <c r="E50" s="352">
+        <f ca="1">IF(E47&lt;=0,0,AVERAGE(F41:F43,1-F44,E47/J27))</f>
+        <v>0.69468272265508246</v>
+      </c>
+      <c r="F50" s="329">
+        <f ca="1">IF(F47&lt;=0,0,AVERAGE(F41:F43,1-F44,F47/J27))</f>
+        <v>0.69468272265508246</v>
+      </c>
+      <c r="G50" s="73"/>
     </row>
     <row r="51" spans="2:9" ht="15.75" customHeight="1">
       <c r="B51" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="D51" s="326"/>
+      <c r="E51" s="328">
+        <f ca="1">IF(E48&gt;=0,100,E47/ABS(E48))</f>
+        <v>1.0276029307493988</v>
+      </c>
+      <c r="F51" s="328">
+        <f ca="1">IF(F48&gt;=0,100,F47/ABS(F48))</f>
+        <v>1.0276029307493988</v>
+      </c>
+      <c r="G51" s="73"/>
+    </row>
+    <row r="52" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B52" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" s="357">
+        <f ca="1">MAX(J27*2/E47,1)</f>
+        <v>1.4113204625141273</v>
+      </c>
+      <c r="F52" s="357">
+        <f ca="1">MAX(J27*2/F47,1)</f>
+        <v>1.4113204625141273</v>
+      </c>
+      <c r="G52" s="330"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
+    </row>
+    <row r="53" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B53" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="E51" s="327">
-        <f ca="1">MIN(MAX(E48-ABS((1-E48)/E49),0)/E50,H51)</f>
+      <c r="E53" s="327">
+        <f ca="1">MIN(MAX(E50-ABS((1-E50)/E51),0)/E52,H53)</f>
         <v>0.28169840116116723</v>
       </c>
-      <c r="F51" s="327">
-        <f ca="1">MIN(MAX(F48-ABS((1-F48)/F49),0)/F50,H51)</f>
+      <c r="F53" s="327">
+        <f ca="1">MIN(MAX(F50-ABS((1-F50)/F51),0)/F52,H53)</f>
         <v>0.28169840116116723</v>
       </c>
-      <c r="G51" s="330" t="s">
+      <c r="G53" s="330" t="s">
         <v>304</v>
       </c>
-      <c r="H51" s="77">
+      <c r="H53" s="77">
         <v>0.4</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="53" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B53" s="21" t="s">
+    <row r="54" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="55" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B55" s="21" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B54" s="360" t="s">
+    <row r="56" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B56" s="360" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B55" s="3" t="s">
+    <row r="57" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B57" s="3" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B56" s="3" t="s">
+    <row r="58" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B58" s="3" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="58" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B58" s="360" t="s">
+    <row r="59" spans="2:9" ht="15.75" customHeight="1"/>
+    <row r="60" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B60" s="360" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B59" s="3" t="s">
+    <row r="61" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B61" s="3" t="s">
         <v>329</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="15.75" customHeight="1">
-      <c r="B60" s="3" t="s">
+    <row r="62" spans="2:9" ht="15.75" customHeight="1">
+      <c r="B62" s="3" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="61" spans="2:9" ht="15.75" customHeight="1"/>
-    <row r="62" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="63" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="64" spans="2:9" ht="15.75" customHeight="1"/>
     <row r="65" ht="15.75" customHeight="1"/>
@@ -6329,20 +6558,23 @@
     <row r="963" ht="15.75" customHeight="1"/>
     <row r="964" ht="15.75" customHeight="1"/>
     <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="54">
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="I36:J36"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="I35:J35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
+  <mergeCells count="56">
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C28:D28"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="I3:J3"/>
@@ -6350,96 +6582,97 @@
     <mergeCell ref="I6:J6"/>
     <mergeCell ref="F16:F18"/>
     <mergeCell ref="G16:G18"/>
-    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="G22:J22"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
     <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
     <mergeCell ref="I16:I18"/>
     <mergeCell ref="G23:J23"/>
     <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="E26:H26"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
     <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="I35:J35"/>
+    <mergeCell ref="I33:J33"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="I34:J34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E29:F29"/>
     <mergeCell ref="E30:F30"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
-    <cfRule type="cellIs" dxfId="17" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
       <formula>$B$18</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D36 I35:J36">
+  <conditionalFormatting sqref="C37:D38 I37:J38">
     <cfRule type="containsBlanks" priority="2">
-      <formula>LEN(TRIM(C35))=0</formula>
+      <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:E26 I26 C28:G29 I28:I29">
+  <conditionalFormatting sqref="C28:E28 I28 C30:G31 I30:I31">
     <cfRule type="containsBlanks" priority="26">
-      <formula>LEN(TRIM(C26))=0</formula>
+      <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D16 D18">
-    <cfRule type="cellIs" dxfId="16" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14">
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="14" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E49:F49">
-    <cfRule type="cellIs" dxfId="14" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="E51:F51">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E50:F50">
+  <conditionalFormatting sqref="E52:F52">
     <cfRule type="containsBlanks" priority="1">
-      <formula>LEN(TRIM(E50))=0</formula>
+      <formula>LEN(TRIM(E52))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26:H26">
-    <cfRule type="containsBlanks" dxfId="13" priority="10">
-      <formula>LEN(TRIM(E26))=0</formula>
+  <conditionalFormatting sqref="E28:H28">
+    <cfRule type="containsBlanks" dxfId="14" priority="10">
+      <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16">
-    <cfRule type="cellIs" dxfId="12" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="17" operator="greaterThan">
       <formula>$B$16</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="cellIs" dxfId="11" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="32" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K38">
+  <conditionalFormatting sqref="K40">
     <cfRule type="containsBlanks" priority="11">
-      <formula>LEN(TRIM(K38))=0</formula>
+      <formula>LEN(TRIM(K40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="4">
@@ -6469,10 +6702,10 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N941"/>
+  <dimension ref="A1:N947"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.453125" defaultRowHeight="15" customHeight="1"/>
@@ -7613,15 +7846,15 @@
         <v>77</v>
       </c>
       <c r="C34" s="140">
-        <f>IF(D7="","",C30-D30+C33+IF($C$49="Yes",C51,0))</f>
+        <f>IF(D7="","",C30-D30+C33+IF($C$55="Yes",C57,0))</f>
         <v>77926.58</v>
       </c>
       <c r="D34" s="140">
-        <f>IF(E7="","",D30-E30+D33+IF($C$49="Yes",D51,0))</f>
+        <f>IF(E7="","",D30-E30+D33+IF($C$55="Yes",D57,0))</f>
         <v>179459.9528</v>
       </c>
       <c r="E34" s="140">
-        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$49="Yes",E51,0))</f>
+        <f t="shared" ref="E34:F34" si="11">IF(F7="","",E30-F30+E33+IF($C$55="Yes",E57,0))</f>
         <v>13109.8056</v>
       </c>
       <c r="F34" s="140" t="str">
@@ -7629,31 +7862,31 @@
         <v/>
       </c>
       <c r="G34" s="140" t="str">
-        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$49="Yes",G51,0))</f>
+        <f t="shared" ref="G34" si="12">IF(H7="","",G30-H30+G33+IF($C$55="Yes",G57,0))</f>
         <v/>
       </c>
       <c r="H34" s="140" t="str">
-        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$49="Yes",H51,0))</f>
+        <f t="shared" ref="H34" si="13">IF(I7="","",H30-I30+H33+IF($C$55="Yes",H57,0))</f>
         <v/>
       </c>
       <c r="I34" s="140" t="str">
-        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$49="Yes",I51,0))</f>
+        <f t="shared" ref="I34" si="14">IF(J7="","",I30-J30+I33+IF($C$55="Yes",I57,0))</f>
         <v/>
       </c>
       <c r="J34" s="140" t="str">
-        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$49="Yes",J51,0))</f>
+        <f t="shared" ref="J34" si="15">IF(K7="","",J30-K30+J33+IF($C$55="Yes",J57,0))</f>
         <v/>
       </c>
       <c r="K34" s="140" t="str">
-        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$49="Yes",K51,0))</f>
+        <f t="shared" ref="K34" si="16">IF(L7="","",K30-L30+K33+IF($C$55="Yes",K57,0))</f>
         <v/>
       </c>
       <c r="L34" s="140" t="str">
-        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$49="Yes",L51,0))</f>
+        <f t="shared" ref="L34" si="17">IF(M7="","",L30-M30+L33+IF($C$55="Yes",L57,0))</f>
         <v/>
       </c>
       <c r="M34" s="318" t="str">
-        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$49="Yes",M51,0))</f>
+        <f t="shared" ref="M34" si="18">IF(N7="","",M30-N30+M33+IF($C$55="Yes",M57,0))</f>
         <v/>
       </c>
       <c r="N34" s="6"/>
@@ -8155,181 +8388,436 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
+      <c r="B47" s="462" t="s">
+        <v>351</v>
+      </c>
+      <c r="C47" s="461"/>
+      <c r="D47" s="461"/>
+      <c r="E47" s="461"/>
+      <c r="F47" s="461"/>
+      <c r="G47" s="461"/>
+      <c r="H47" s="461"/>
+      <c r="I47" s="461"/>
+      <c r="J47" s="461"/>
+      <c r="K47" s="461"/>
+      <c r="L47" s="461"/>
+      <c r="M47" s="461"/>
+      <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
       <c r="A48" s="9"/>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="165" t="s">
+        <v>352</v>
+      </c>
+      <c r="C48" s="463">
+        <f>C13</f>
+        <v>5.7099249113571449E-2</v>
+      </c>
+      <c r="D48" s="463">
+        <f>D13</f>
+        <v>8.6419586206441801E-2</v>
+      </c>
+      <c r="E48" s="463">
+        <f t="shared" ref="E48:M48" si="27">E13</f>
+        <v>0.11162571911774728</v>
+      </c>
+      <c r="F48" s="463">
+        <f t="shared" si="27"/>
+        <v>0.12247078081208196</v>
+      </c>
+      <c r="G48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="H48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="I48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="J48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="K48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="L48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="M48" s="463" t="str">
+        <f t="shared" si="27"/>
+        <v/>
+      </c>
+      <c r="N48" s="6"/>
+    </row>
+    <row r="49" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A49" s="9"/>
+      <c r="B49" s="139" t="s">
+        <v>353</v>
+      </c>
+      <c r="C49" s="464">
+        <f>C7/(C29+C21+C22)</f>
+        <v>0.59050631265636333</v>
+      </c>
+      <c r="D49" s="464">
+        <f>IF(D7="","",D7/(D29+D21+D22))</f>
+        <v>0.63851828383560838</v>
+      </c>
+      <c r="E49" s="464">
+        <f t="shared" ref="E49:M49" si="28">IF(E7="","",E7/(E29+E21+E22))</f>
+        <v>0.66437173352027401</v>
+      </c>
+      <c r="F49" s="464">
+        <f t="shared" si="28"/>
+        <v>0.73014554522493769</v>
+      </c>
+      <c r="G49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="H49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="I49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="J49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="K49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="L49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="M49" s="464" t="str">
+        <f t="shared" si="28"/>
+        <v/>
+      </c>
+      <c r="N49" s="6"/>
+    </row>
+    <row r="50" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A50" s="9"/>
+      <c r="B50" s="139" t="s">
+        <v>354</v>
+      </c>
+      <c r="C50" s="465">
+        <f>(C29+C21+C22)/C29</f>
+        <v>2.7640367183719343</v>
+      </c>
+      <c r="D50" s="465">
+        <f>IF(D29="","",(D29+D21+D22)/D29)</f>
+        <v>2.7786655942675393</v>
+      </c>
+      <c r="E50" s="465">
+        <f t="shared" ref="E50:M50" si="29">IF(E29="","",(E29+E21+E22)/E29)</f>
+        <v>2.4282321241275633</v>
+      </c>
+      <c r="F50" s="465">
+        <f t="shared" si="29"/>
+        <v>2.5118331879846907</v>
+      </c>
+      <c r="G50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="H50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="I50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="J50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="K50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="L50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="M50" s="465" t="str">
+        <f t="shared" si="29"/>
+        <v/>
+      </c>
+      <c r="N50" s="6"/>
+    </row>
+    <row r="51" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A51" s="9"/>
+      <c r="B51" s="139" t="s">
+        <v>355</v>
+      </c>
+      <c r="C51" s="466">
+        <f>C48*C49*C50</f>
+        <v>9.3196316975319896E-2</v>
+      </c>
+      <c r="D51" s="466">
+        <f>IF(D48="","",D48*D49*D50)</f>
+        <v>0.15332811757394069</v>
+      </c>
+      <c r="E51" s="466">
+        <f t="shared" ref="E51:M51" si="30">IF(E48="","",E48*E49*E50)</f>
+        <v>0.18008005581917608</v>
+      </c>
+      <c r="F51" s="466">
+        <f t="shared" si="30"/>
+        <v>0.22461187893596754</v>
+      </c>
+      <c r="G51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="H51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="I51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="J51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="K51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="L51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="M51" s="466" t="str">
+        <f t="shared" si="30"/>
+        <v/>
+      </c>
+      <c r="N51" s="6"/>
+    </row>
+    <row r="52" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A52" s="9"/>
+      <c r="B52" s="467" t="s">
+        <v>356</v>
+      </c>
+      <c r="C52" s="468">
+        <f>C35*C51</f>
+        <v>2.5343098101249361E-2</v>
+      </c>
+      <c r="D52" s="468">
+        <f>IF(D35="","",D35*D51)</f>
+        <v>5.2487099126238432E-2</v>
+      </c>
+      <c r="E52" s="468">
+        <f t="shared" ref="E52:M52" si="31">IF(E35="","",E35*E51)</f>
+        <v>3.9275362119115462E-3</v>
+      </c>
+      <c r="F52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="G52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="H52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="I52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="J52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="K52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="L52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="M52" s="468" t="str">
+        <f t="shared" si="31"/>
+        <v/>
+      </c>
+      <c r="N52" s="6"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A53" s="9"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
+      <c r="K53" s="6"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="6"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A54" s="9"/>
+      <c r="B54" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
-      <c r="E48" s="52"/>
-      <c r="F48" s="52"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" customHeight="1">
-      <c r="A49" s="9"/>
-      <c r="B49" s="5" t="s">
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+    </row>
+    <row r="55" spans="1:14" ht="15" customHeight="1">
+      <c r="A55" s="9"/>
+      <c r="B55" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C49" s="317" t="s">
+      <c r="C55" s="317" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" customHeight="1">
-      <c r="A50" s="9"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="314"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="314"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
-    </row>
-    <row r="51" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A51" s="9"/>
-      <c r="B51" s="315" t="s">
+      <c r="D55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+      <c r="L55" s="6"/>
+      <c r="M55" s="6"/>
+    </row>
+    <row r="56" spans="1:14" ht="15" customHeight="1">
+      <c r="A56" s="9"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="314"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="314"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
+      <c r="K56" s="6"/>
+      <c r="L56" s="6"/>
+      <c r="M56" s="6"/>
+    </row>
+    <row r="57" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A57" s="9"/>
+      <c r="B57" s="315" t="s">
         <v>276</v>
       </c>
-      <c r="C51" s="162"/>
-      <c r="D51" s="162"/>
-      <c r="E51" s="162"/>
-      <c r="F51" s="162"/>
-      <c r="G51" s="162"/>
-      <c r="H51" s="162"/>
-      <c r="I51" s="162"/>
-      <c r="J51" s="162"/>
-      <c r="K51" s="162"/>
-      <c r="L51" s="162"/>
-      <c r="M51" s="163"/>
-    </row>
-    <row r="52" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A52" s="9"/>
-      <c r="B52" s="316" t="s">
+      <c r="C57" s="162"/>
+      <c r="D57" s="162"/>
+      <c r="E57" s="162"/>
+      <c r="F57" s="162"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="162"/>
+      <c r="I57" s="162"/>
+      <c r="J57" s="162"/>
+      <c r="K57" s="162"/>
+      <c r="L57" s="162"/>
+      <c r="M57" s="163"/>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1">
+      <c r="A58" s="9"/>
+      <c r="B58" s="316" t="s">
         <v>277</v>
       </c>
-      <c r="C52" s="320" t="str">
-        <f>IF(C51="","",C51/C7)</f>
-        <v/>
-      </c>
-      <c r="D52" s="320" t="str">
-        <f t="shared" ref="D52:M52" si="27">IF(D51="","",D51/D7)</f>
-        <v/>
-      </c>
-      <c r="E52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="F52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="G52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="H52" s="320" t="str">
-        <f>IF(H51="","",H51/H7)</f>
-        <v/>
-      </c>
-      <c r="I52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="J52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="K52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="L52" s="320" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-      <c r="M52" s="321" t="str">
-        <f t="shared" si="27"/>
-        <v/>
-      </c>
-    </row>
-    <row r="53" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A53" s="9"/>
-      <c r="B53" s="53"/>
-      <c r="C53" s="56"/>
-      <c r="D53" s="56"/>
-    </row>
-    <row r="54" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A54" s="9"/>
-      <c r="B54" s="53"/>
-      <c r="C54" s="56"/>
-      <c r="D54" s="56"/>
-    </row>
-    <row r="55" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A55" s="9"/>
-      <c r="B55" s="53"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-    </row>
-    <row r="56" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A56" s="9"/>
-      <c r="B56" s="53"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-    </row>
-    <row r="57" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A57" s="9"/>
-      <c r="B57" s="53"/>
-      <c r="C57" s="56"/>
-      <c r="D57" s="56"/>
-    </row>
-    <row r="58" spans="1:13" ht="15.75" customHeight="1">
-      <c r="A58" s="9"/>
-      <c r="B58" s="53"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
-    </row>
-    <row r="59" spans="1:13" ht="15.75" customHeight="1">
+      <c r="C58" s="320" t="str">
+        <f>IF(C57="","",C57/C7)</f>
+        <v/>
+      </c>
+      <c r="D58" s="320" t="str">
+        <f t="shared" ref="D58:M58" si="32">IF(D57="","",D57/D7)</f>
+        <v/>
+      </c>
+      <c r="E58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H58" s="320" t="str">
+        <f>IF(H57="","",H57/H7)</f>
+        <v/>
+      </c>
+      <c r="I58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L58" s="320" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M58" s="321" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="15.75" customHeight="1">
       <c r="A59" s="9"/>
-    </row>
-    <row r="60" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B59" s="53"/>
+      <c r="C59" s="56"/>
+      <c r="D59" s="56"/>
+    </row>
+    <row r="60" spans="1:14" ht="15.75" customHeight="1">
       <c r="A60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B60" s="53"/>
+      <c r="C60" s="56"/>
+      <c r="D60" s="56"/>
+    </row>
+    <row r="61" spans="1:14" ht="15.75" customHeight="1">
       <c r="A61" s="9"/>
-    </row>
-    <row r="62" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B61" s="53"/>
+      <c r="C61" s="56"/>
+      <c r="D61" s="56"/>
+    </row>
+    <row r="62" spans="1:14" ht="15.75" customHeight="1">
       <c r="A62" s="9"/>
-    </row>
-    <row r="63" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B62" s="53"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
+    </row>
+    <row r="63" spans="1:14" ht="15.75" customHeight="1">
       <c r="A63" s="9"/>
-    </row>
-    <row r="64" spans="1:13" ht="15.75" customHeight="1">
+      <c r="B63" s="53"/>
+      <c r="C63" s="56"/>
+      <c r="D63" s="56"/>
+    </row>
+    <row r="64" spans="1:14" ht="15.75" customHeight="1">
       <c r="A64" s="9"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
     </row>
     <row r="65" spans="1:1" ht="15.75" customHeight="1">
       <c r="A65" s="9"/>
@@ -8913,12 +9401,24 @@
     <row r="258" spans="1:1" ht="15.75" customHeight="1">
       <c r="A258" s="9"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1"/>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1"/>
+    <row r="259" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A259" s="9"/>
+    </row>
+    <row r="260" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A260" s="9"/>
+    </row>
+    <row r="261" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A261" s="9"/>
+    </row>
+    <row r="262" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A262" s="9"/>
+    </row>
+    <row r="263" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A263" s="9"/>
+    </row>
+    <row r="264" spans="1:1" ht="15.75" customHeight="1">
+      <c r="A264" s="9"/>
+    </row>
     <row r="265" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="266" spans="1:1" ht="15.75" customHeight="1"/>
     <row r="267" spans="1:1" ht="15.75" customHeight="1"/>
@@ -9596,38 +10096,49 @@
     <row r="939" ht="15.75" customHeight="1"/>
     <row r="940" ht="15.75" customHeight="1"/>
     <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
-  <conditionalFormatting sqref="B51:M52">
-    <cfRule type="expression" dxfId="10" priority="1">
-      <formula>$C$49="No"</formula>
+  <conditionalFormatting sqref="B57:M58">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>$C$55="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7:M35 D42:M46">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C7))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37:M40">
-    <cfRule type="containsBlanks" dxfId="8" priority="5">
+    <cfRule type="containsBlanks" dxfId="9" priority="6">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:M18">
-    <cfRule type="containsBlanks" dxfId="7" priority="4">
+    <cfRule type="containsBlanks" dxfId="8" priority="5">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="D48:M52">
+    <cfRule type="containsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(D48))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D51" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="decimal" allowBlank="1" showDropDown="1" sqref="D57" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>1</formula1>
       <formula2>10</formula2>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" sqref="C49" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" sqref="C55" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" sqref="C50" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
+    <dataValidation allowBlank="1" sqref="C56" xr:uid="{536BB552-B5C0-4BE0-BE6E-3B4056ED999A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -12341,17 +12852,17 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E23:E25">
-    <cfRule type="containsBlanks" dxfId="6" priority="2">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25 I25">
-    <cfRule type="containsBlanks" dxfId="5" priority="4">
+    <cfRule type="containsBlanks" dxfId="6" priority="4">
       <formula>LEN(TRIM(G25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H18 H19 G20:H22">
-    <cfRule type="containsBlanks" dxfId="4" priority="10">
+    <cfRule type="containsBlanks" dxfId="5" priority="10">
       <formula>LEN(TRIM(G14))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
@@ -12359,12 +12870,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:J25">
-    <cfRule type="containsBlanks" dxfId="3" priority="1">
+    <cfRule type="containsBlanks" dxfId="4" priority="1">
       <formula>LEN(TRIM(G14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J22">
-    <cfRule type="containsBlanks" dxfId="2" priority="6">
+    <cfRule type="containsBlanks" dxfId="3" priority="6">
       <formula>LEN(TRIM(I14))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
@@ -13902,12 +14413,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="1" priority="5">
+    <cfRule type="containsBlanks" dxfId="2" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>

--- a/financial_models/Opportunities/1382.HK_Stock_Valuation.xlsx
+++ b/financial_models/Opportunities/1382.HK_Stock_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jerry.chen\PycharmProjects\Invest_Proc\financial_models\Opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{435DD9BE-DC40-4EDB-8E0E-FAC9D6A710C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{35C609E4-D550-403D-829D-98372836124E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35250" yWindow="4110" windowWidth="8625" windowHeight="4635" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
@@ -4073,201 +4073,246 @@
     <xf numFmtId="4" fontId="27" fillId="13" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="171" fontId="1" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="6" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="91" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="92" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="4" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="8" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="71" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="1" fillId="14" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="69" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="70" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="8" borderId="71" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="6" fontId="3" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="7" fillId="8" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="86" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="90" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="16" borderId="89" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="7" fillId="8" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="4" fillId="9" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4305,51 +4350,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="111" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="112" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="113" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="116" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4359,14 +4359,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="19">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7B7B7"/>
-          <bgColor rgb="FFB7B7B7"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -4416,6 +4408,14 @@
       <fill>
         <patternFill patternType="solid">
           <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4796,33 +4796,33 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="412" t="s">
+      <c r="C3" s="385" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="413"/>
+      <c r="D3" s="386"/>
       <c r="E3" s="15"/>
       <c r="G3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="422" t="s">
+      <c r="I3" s="397" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="423"/>
+      <c r="J3" s="398"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1">
       <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="414" t="s">
+      <c r="C4" s="387" t="s">
         <v>332</v>
       </c>
-      <c r="D4" s="415"/>
+      <c r="D4" s="388"/>
       <c r="E4" s="6"/>
       <c r="G4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="32">
-        <v>1.96</v>
+        <v>1.95</v>
       </c>
       <c r="J4" s="33" t="s">
         <v>6</v>
@@ -4833,10 +4833,10 @@
       <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="416">
+      <c r="C5" s="389">
         <v>45131</v>
       </c>
-      <c r="D5" s="415"/>
+      <c r="D5" s="388"/>
       <c r="E5" s="120" t="str">
         <f ca="1">IF(C5+30&gt;=TODAY(),"Patience Premium","")</f>
         <v>Patience Premium</v>
@@ -4844,10 +4844,10 @@
       <c r="G5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="384">
+      <c r="I5" s="399">
         <v>1404509952</v>
       </c>
-      <c r="J5" s="385"/>
+      <c r="J5" s="400"/>
       <c r="K5" s="148"/>
       <c r="L5" s="84"/>
     </row>
@@ -4870,11 +4870,11 @@
         <v>9</v>
       </c>
       <c r="H6" s="130"/>
-      <c r="I6" s="424">
+      <c r="I6" s="401">
         <f>I4*I5/1000000</f>
-        <v>2752.8395059200002</v>
-      </c>
-      <c r="J6" s="425"/>
+        <v>2738.7944064000003</v>
+      </c>
+      <c r="J6" s="402"/>
       <c r="K6" s="148"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1">
@@ -4914,11 +4914,11 @@
       </c>
       <c r="I9" s="119">
         <f>IF(Data!F3&lt;=0,"NNI",I4/((Data!F3*I12)/(I5/Data!C4)))</f>
-        <v>10.249912522228676</v>
+        <v>10.19761705017649</v>
       </c>
       <c r="J9" s="48">
         <f>IF(I9="NNI","NNI",1/I9)</f>
-        <v>9.7561808242883061E-2</v>
+        <v>9.8062125208231182E-2</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1">
@@ -4937,41 +4937,41 @@
       </c>
       <c r="I10" s="135">
         <f>I4/(Data!C28*I12*Data!C4/Common_Shares)</f>
-        <v>0.89129702964180602</v>
+        <v>0.88674959581710289</v>
       </c>
       <c r="J10" s="127">
         <f>IF(Asset_Model!D60/'FCFF Model'!C4&lt;0,"Negative EV",Asset_Model!D60/'FCFF Model'!C4)</f>
-        <v>12.019818615002015</v>
+        <v>11.9544696225884</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1">
       <c r="B11" s="288" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="382">
+      <c r="C11" s="416">
         <f ca="1">C12-D10</f>
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="D11" s="383"/>
+      <c r="D11" s="417"/>
       <c r="E11" s="13"/>
       <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
       <c r="H11" s="6"/>
-      <c r="I11" s="379" t="s">
+      <c r="I11" s="414" t="s">
         <v>6</v>
       </c>
-      <c r="J11" s="380"/>
+      <c r="J11" s="415"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" customHeight="1" thickTop="1">
       <c r="B12" s="289" t="s">
         <v>143</v>
       </c>
-      <c r="C12" s="430">
+      <c r="C12" s="412">
         <f ca="1">IF(C10="CN",8%,6%)*IF($C$5+30&gt;=TODAY(),1.2,1)</f>
         <v>9.6000000000000002E-2</v>
       </c>
-      <c r="D12" s="431"/>
+      <c r="D12" s="413"/>
       <c r="G12" s="131" t="s">
         <v>16</v>
       </c>
@@ -5033,35 +5033,35 @@
     <row r="16" spans="1:12" ht="15.75" customHeight="1">
       <c r="B16" s="128">
         <f>I4</f>
-        <v>1.96</v>
-      </c>
-      <c r="C16" s="405">
+        <v>1.95</v>
+      </c>
+      <c r="C16" s="433">
         <v>0.25</v>
       </c>
       <c r="D16" s="156">
         <f ca="1">I37/B16-(1+J27)</f>
-        <v>-0.58448103701069243</v>
-      </c>
-      <c r="E16" s="396" t="s">
+        <v>-0.58132452950818314</v>
+      </c>
+      <c r="E16" s="406" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="426">
+      <c r="F16" s="403">
         <f>('FCFF Model'!G16)*Exchange_Rate</f>
         <v>3.0714200307781023E-2</v>
       </c>
-      <c r="G16" s="396" t="s">
+      <c r="G16" s="406" t="s">
         <v>24</v>
       </c>
       <c r="H16" s="354">
         <f>B16-$F$16</f>
-        <v>1.929285799692219</v>
-      </c>
-      <c r="I16" s="391">
+        <v>1.919285799692219</v>
+      </c>
+      <c r="I16" s="424">
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="J16" s="158">
         <f>I16/B16</f>
-        <v>1.2806122448979593E-2</v>
+        <v>1.2871794871794873E-2</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1">
@@ -5069,19 +5069,19 @@
         <f ca="1">(I37+I38)/2</f>
         <v>0.94357817908248853</v>
       </c>
-      <c r="C17" s="406"/>
+      <c r="C17" s="434"/>
       <c r="D17" s="268">
         <f ca="1">I37/B17-(1+J27)</f>
         <v>7.8555602708121341E-2</v>
       </c>
-      <c r="E17" s="397"/>
-      <c r="F17" s="427"/>
-      <c r="G17" s="397"/>
+      <c r="E17" s="407"/>
+      <c r="F17" s="404"/>
+      <c r="G17" s="407"/>
       <c r="H17" s="355">
         <f ca="1">B17-$F$16</f>
         <v>0.91286397877470749</v>
       </c>
-      <c r="I17" s="392"/>
+      <c r="I17" s="425"/>
       <c r="J17" s="159">
         <f ca="1">I16/B17</f>
         <v>2.6600869494890825E-2</v>
@@ -5092,19 +5092,19 @@
         <f>C37</f>
         <v>0.94</v>
       </c>
-      <c r="C18" s="407"/>
+      <c r="C18" s="435"/>
       <c r="D18" s="157">
         <f ca="1">I37/B18-(1+J27)</f>
         <v>8.3422518573449844E-2</v>
       </c>
-      <c r="E18" s="398"/>
-      <c r="F18" s="428"/>
-      <c r="G18" s="398"/>
+      <c r="E18" s="408"/>
+      <c r="F18" s="405"/>
+      <c r="G18" s="408"/>
       <c r="H18" s="356">
         <f>B18-$F$16</f>
         <v>0.9092857996922189</v>
       </c>
-      <c r="I18" s="393"/>
+      <c r="I18" s="426"/>
       <c r="J18" s="160">
         <f>I16/B18</f>
         <v>2.6702127659574471E-2</v>
@@ -5137,80 +5137,80 @@
       <c r="B21" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="C21" s="419" t="s">
+      <c r="C21" s="392" t="s">
         <v>342</v>
       </c>
-      <c r="D21" s="420"/>
-      <c r="E21" s="420"/>
-      <c r="F21" s="420"/>
-      <c r="G21" s="420"/>
-      <c r="H21" s="420"/>
-      <c r="I21" s="420"/>
-      <c r="J21" s="421"/>
+      <c r="D21" s="393"/>
+      <c r="E21" s="393"/>
+      <c r="F21" s="393"/>
+      <c r="G21" s="393"/>
+      <c r="H21" s="393"/>
+      <c r="I21" s="393"/>
+      <c r="J21" s="394"/>
     </row>
     <row r="22" spans="1:10" ht="52.5" customHeight="1">
       <c r="A22" s="6"/>
       <c r="B22" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="381" t="s">
+      <c r="C22" s="410" t="s">
         <v>344</v>
       </c>
-      <c r="D22" s="365"/>
-      <c r="E22" s="365"/>
-      <c r="F22" s="365"/>
-      <c r="G22" s="381" t="s">
+      <c r="D22" s="411"/>
+      <c r="E22" s="411"/>
+      <c r="F22" s="411"/>
+      <c r="G22" s="410" t="s">
         <v>347</v>
       </c>
-      <c r="H22" s="381"/>
-      <c r="I22" s="365"/>
-      <c r="J22" s="365"/>
+      <c r="H22" s="410"/>
+      <c r="I22" s="411"/>
+      <c r="J22" s="411"/>
     </row>
     <row r="23" spans="1:10" ht="52.5" customHeight="1">
       <c r="A23" s="6"/>
       <c r="B23" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="394" t="s">
+      <c r="C23" s="395" t="s">
         <v>346</v>
       </c>
-      <c r="D23" s="395"/>
-      <c r="E23" s="395"/>
-      <c r="F23" s="395"/>
-      <c r="G23" s="394" t="s">
+      <c r="D23" s="396"/>
+      <c r="E23" s="396"/>
+      <c r="F23" s="396"/>
+      <c r="G23" s="395" t="s">
         <v>343</v>
       </c>
-      <c r="H23" s="394"/>
-      <c r="I23" s="395"/>
-      <c r="J23" s="395"/>
+      <c r="H23" s="395"/>
+      <c r="I23" s="396"/>
+      <c r="J23" s="396"/>
     </row>
     <row r="24" spans="1:10" ht="52.5" customHeight="1">
       <c r="A24" s="6"/>
       <c r="B24" s="24" t="s">
         <v>349</v>
       </c>
-      <c r="C24" s="454"/>
-      <c r="D24" s="455"/>
-      <c r="E24" s="455"/>
-      <c r="F24" s="455"/>
-      <c r="G24" s="455"/>
-      <c r="H24" s="455"/>
-      <c r="I24" s="455"/>
-      <c r="J24" s="456"/>
+      <c r="C24" s="436"/>
+      <c r="D24" s="437"/>
+      <c r="E24" s="437"/>
+      <c r="F24" s="437"/>
+      <c r="G24" s="437"/>
+      <c r="H24" s="437"/>
+      <c r="I24" s="437"/>
+      <c r="J24" s="438"/>
     </row>
     <row r="25" spans="1:10" ht="52.5" customHeight="1">
       <c r="A25" s="6"/>
-      <c r="B25" s="457" t="s">
+      <c r="B25" s="362" t="s">
         <v>350</v>
       </c>
-      <c r="C25" s="458"/>
-      <c r="D25" s="459"/>
-      <c r="E25" s="459"/>
-      <c r="F25" s="459"/>
-      <c r="G25" s="459"/>
-      <c r="H25" s="459"/>
-      <c r="I25" s="459"/>
-      <c r="J25" s="460"/>
+      <c r="C25" s="371"/>
+      <c r="D25" s="372"/>
+      <c r="E25" s="372"/>
+      <c r="F25" s="372"/>
+      <c r="G25" s="372"/>
+      <c r="H25" s="372"/>
+      <c r="I25" s="372"/>
+      <c r="J25" s="373"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1">
       <c r="B26" s="6"/>
@@ -5249,205 +5249,205 @@
       <c r="B28" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="C28" s="417"/>
-      <c r="D28" s="418"/>
-      <c r="E28" s="402" t="str">
+      <c r="C28" s="390"/>
+      <c r="D28" s="391"/>
+      <c r="E28" s="430" t="str">
         <f>IF(C28="","","Action_Planning")</f>
         <v/>
       </c>
-      <c r="F28" s="403"/>
-      <c r="G28" s="403"/>
-      <c r="H28" s="404"/>
-      <c r="I28" s="429" t="s">
+      <c r="F28" s="431"/>
+      <c r="G28" s="431"/>
+      <c r="H28" s="432"/>
+      <c r="I28" s="409" t="s">
         <v>32</v>
       </c>
-      <c r="J28" s="429"/>
+      <c r="J28" s="409"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1">
       <c r="B29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="390">
+      <c r="C29" s="423">
         <f>C33/D27</f>
         <v>0.25636363636363635</v>
       </c>
-      <c r="D29" s="376"/>
-      <c r="E29" s="389">
+      <c r="D29" s="422"/>
+      <c r="E29" s="421">
         <f>E33/D27</f>
         <v>0.13636363636363635</v>
       </c>
-      <c r="F29" s="376"/>
-      <c r="G29" s="400">
+      <c r="F29" s="422"/>
+      <c r="G29" s="428">
         <f>G33/D27</f>
         <v>0</v>
       </c>
-      <c r="H29" s="401"/>
-      <c r="I29" s="399">
+      <c r="H29" s="429"/>
+      <c r="I29" s="427">
         <f>C29+E29+G29</f>
         <v>0.3927272727272727</v>
       </c>
-      <c r="J29" s="399"/>
+      <c r="J29" s="427"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1">
       <c r="B30" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C30" s="364">
+      <c r="C30" s="452">
         <v>180000</v>
       </c>
-      <c r="D30" s="365"/>
-      <c r="E30" s="364">
+      <c r="D30" s="411"/>
+      <c r="E30" s="452">
         <v>100000</v>
       </c>
-      <c r="F30" s="365"/>
-      <c r="G30" s="384"/>
-      <c r="H30" s="385"/>
-      <c r="I30" s="378">
+      <c r="F30" s="411"/>
+      <c r="G30" s="399"/>
+      <c r="H30" s="400"/>
+      <c r="I30" s="442">
         <f>C30+E30+G30</f>
         <v>280000</v>
       </c>
-      <c r="J30" s="378"/>
+      <c r="J30" s="442"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1">
       <c r="B31" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="C31" s="366">
+      <c r="C31" s="453">
         <v>0.94</v>
       </c>
-      <c r="D31" s="365"/>
-      <c r="E31" s="366">
+      <c r="D31" s="411"/>
+      <c r="E31" s="453">
         <v>0.9</v>
       </c>
-      <c r="F31" s="365"/>
-      <c r="G31" s="387"/>
-      <c r="H31" s="388"/>
-      <c r="I31" s="386"/>
-      <c r="J31" s="386"/>
+      <c r="F31" s="411"/>
+      <c r="G31" s="419"/>
+      <c r="H31" s="420"/>
+      <c r="I31" s="418"/>
+      <c r="J31" s="418"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1">
       <c r="B32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C32" s="362">
+      <c r="C32" s="440">
         <f>C31*$I$5/1000000</f>
         <v>1320.2393548799998</v>
       </c>
-      <c r="D32" s="363"/>
-      <c r="E32" s="362">
+      <c r="D32" s="448"/>
+      <c r="E32" s="440">
         <f>E31*$I$5/1000000</f>
         <v>1264.0589568</v>
       </c>
-      <c r="F32" s="363"/>
-      <c r="G32" s="408">
+      <c r="F32" s="448"/>
+      <c r="G32" s="381">
         <f>G31*$I$5/1000000</f>
         <v>0</v>
       </c>
-      <c r="H32" s="409"/>
-      <c r="I32" s="377"/>
-      <c r="J32" s="377"/>
+      <c r="H32" s="382"/>
+      <c r="I32" s="439"/>
+      <c r="J32" s="439"/>
     </row>
     <row r="33" spans="2:11" ht="15.75" customHeight="1">
       <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="371">
+      <c r="C33" s="449">
         <f>C30*C31</f>
         <v>169200</v>
       </c>
-      <c r="D33" s="372"/>
-      <c r="E33" s="373">
+      <c r="D33" s="450"/>
+      <c r="E33" s="441">
         <f>E30*E31</f>
         <v>90000</v>
       </c>
-      <c r="F33" s="374"/>
-      <c r="G33" s="410">
+      <c r="F33" s="451"/>
+      <c r="G33" s="383">
         <f>G30*G31</f>
         <v>0</v>
       </c>
-      <c r="H33" s="411"/>
-      <c r="I33" s="373">
+      <c r="H33" s="384"/>
+      <c r="I33" s="441">
         <f>C33+E33+G33</f>
         <v>259200</v>
       </c>
-      <c r="J33" s="373"/>
+      <c r="J33" s="441"/>
     </row>
     <row r="34" spans="2:11" ht="15.75" customHeight="1">
       <c r="B34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="367"/>
-      <c r="D34" s="368"/>
-      <c r="E34" s="375">
+      <c r="C34" s="444"/>
+      <c r="D34" s="445"/>
+      <c r="E34" s="443">
         <f>IF(C33=0,"-",(C33+E33)/(C30+E30))</f>
         <v>0.92571428571428571</v>
       </c>
-      <c r="F34" s="376"/>
+      <c r="F34" s="422"/>
       <c r="G34" s="115"/>
       <c r="H34" s="115"/>
-      <c r="I34" s="375">
+      <c r="I34" s="443">
         <f>IF(I33=0,"",I33/I30)</f>
         <v>0.92571428571428571</v>
       </c>
-      <c r="J34" s="375"/>
+      <c r="J34" s="443"/>
     </row>
     <row r="35" spans="2:11" ht="15.75" customHeight="1">
       <c r="B35" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C35" s="369"/>
-      <c r="D35" s="370"/>
-      <c r="E35" s="362">
+      <c r="C35" s="446"/>
+      <c r="D35" s="447"/>
+      <c r="E35" s="440">
         <f>IF(E34="-","-",E34*$I$5/1000000)</f>
         <v>1300.1749269942859</v>
       </c>
-      <c r="F35" s="363"/>
+      <c r="F35" s="448"/>
       <c r="G35" s="116"/>
       <c r="H35" s="116"/>
-      <c r="I35" s="362">
+      <c r="I35" s="440">
         <f>IF(I34="","",I34*$I$5/1000000)</f>
         <v>1300.1749269942859</v>
       </c>
-      <c r="J35" s="362"/>
+      <c r="J35" s="440"/>
     </row>
     <row r="36" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="37" spans="2:11" ht="15.75" customHeight="1">
       <c r="B37" s="143" t="s">
         <v>286</v>
       </c>
-      <c r="C37" s="435">
+      <c r="C37" s="377">
         <f>IF(C28="",C31,E31)</f>
         <v>0.94</v>
       </c>
-      <c r="D37" s="436"/>
-      <c r="G37" s="437" t="s">
+      <c r="D37" s="378"/>
+      <c r="G37" s="379" t="s">
         <v>315</v>
       </c>
-      <c r="H37" s="438"/>
-      <c r="I37" s="433">
+      <c r="H37" s="380"/>
+      <c r="I37" s="375">
         <f ca="1">'FCFF Model'!C31</f>
         <v>1.2064171674590427</v>
       </c>
-      <c r="J37" s="434"/>
+      <c r="J37" s="376"/>
     </row>
     <row r="38" spans="2:11" ht="15.75" customHeight="1">
       <c r="B38" s="143" t="s">
         <v>316</v>
       </c>
-      <c r="C38" s="435">
+      <c r="C38" s="377">
         <f>IF(C28="",C31,E34)</f>
         <v>0.94</v>
       </c>
-      <c r="D38" s="436"/>
-      <c r="G38" s="432" t="s">
+      <c r="D38" s="378"/>
+      <c r="G38" s="374" t="s">
         <v>313</v>
       </c>
-      <c r="H38" s="432"/>
-      <c r="I38" s="433">
+      <c r="H38" s="374"/>
+      <c r="I38" s="375">
         <f ca="1">'FCFF Model'!C32</f>
         <v>0.68073919070593436</v>
       </c>
-      <c r="J38" s="434"/>
+      <c r="J38" s="376"/>
     </row>
     <row r="39" spans="2:11" ht="15.75" customHeight="1"/>
     <row r="40" spans="2:11" ht="15.75" customHeight="1">
@@ -6562,15 +6562,30 @@
     <row r="967" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="56">
-    <mergeCell ref="C25:J25"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="I38:J38"/>
-    <mergeCell ref="C38:D38"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="I37:J37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="E29:F29"/>
+    <mergeCell ref="C29:D29"/>
+    <mergeCell ref="I16:I18"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="E16:E18"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="E28:H28"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="I30:J30"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
@@ -6587,37 +6602,22 @@
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="I11:J11"/>
     <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="C29:D29"/>
-    <mergeCell ref="I16:I18"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="E16:E18"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="E28:H28"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C24:J24"/>
+    <mergeCell ref="C25:J25"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="I38:J38"/>
+    <mergeCell ref="C38:D38"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="I37:J37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="I32:J32"/>
     <mergeCell ref="I35:J35"/>
     <mergeCell ref="I33:J33"/>
-    <mergeCell ref="I30:J30"/>
     <mergeCell ref="I34:J34"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C31:D31"/>
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="B16">
@@ -8388,20 +8388,20 @@
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1">
       <c r="A47" s="9"/>
-      <c r="B47" s="462" t="s">
+      <c r="B47" s="364" t="s">
         <v>351</v>
       </c>
-      <c r="C47" s="461"/>
-      <c r="D47" s="461"/>
-      <c r="E47" s="461"/>
-      <c r="F47" s="461"/>
-      <c r="G47" s="461"/>
-      <c r="H47" s="461"/>
-      <c r="I47" s="461"/>
-      <c r="J47" s="461"/>
-      <c r="K47" s="461"/>
-      <c r="L47" s="461"/>
-      <c r="M47" s="461"/>
+      <c r="C47" s="363"/>
+      <c r="D47" s="363"/>
+      <c r="E47" s="363"/>
+      <c r="F47" s="363"/>
+      <c r="G47" s="363"/>
+      <c r="H47" s="363"/>
+      <c r="I47" s="363"/>
+      <c r="J47" s="363"/>
+      <c r="K47" s="363"/>
+      <c r="L47" s="363"/>
+      <c r="M47" s="363"/>
       <c r="N47" s="6"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1">
@@ -8409,47 +8409,47 @@
       <c r="B48" s="165" t="s">
         <v>352</v>
       </c>
-      <c r="C48" s="463">
+      <c r="C48" s="365">
         <f>C13</f>
         <v>5.7099249113571449E-2</v>
       </c>
-      <c r="D48" s="463">
+      <c r="D48" s="365">
         <f>D13</f>
         <v>8.6419586206441801E-2</v>
       </c>
-      <c r="E48" s="463">
+      <c r="E48" s="365">
         <f t="shared" ref="E48:M48" si="27">E13</f>
         <v>0.11162571911774728</v>
       </c>
-      <c r="F48" s="463">
+      <c r="F48" s="365">
         <f t="shared" si="27"/>
         <v>0.12247078081208196</v>
       </c>
-      <c r="G48" s="463" t="str">
+      <c r="G48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="H48" s="463" t="str">
+      <c r="H48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="I48" s="463" t="str">
+      <c r="I48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="J48" s="463" t="str">
+      <c r="J48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="K48" s="463" t="str">
+      <c r="K48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="L48" s="463" t="str">
+      <c r="L48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
-      <c r="M48" s="463" t="str">
+      <c r="M48" s="365" t="str">
         <f t="shared" si="27"/>
         <v/>
       </c>
@@ -8460,47 +8460,47 @@
       <c r="B49" s="139" t="s">
         <v>353</v>
       </c>
-      <c r="C49" s="464">
+      <c r="C49" s="366">
         <f>C7/(C29+C21+C22)</f>
         <v>0.59050631265636333</v>
       </c>
-      <c r="D49" s="464">
+      <c r="D49" s="366">
         <f>IF(D7="","",D7/(D29+D21+D22))</f>
         <v>0.63851828383560838</v>
       </c>
-      <c r="E49" s="464">
+      <c r="E49" s="366">
         <f t="shared" ref="E49:M49" si="28">IF(E7="","",E7/(E29+E21+E22))</f>
         <v>0.66437173352027401</v>
       </c>
-      <c r="F49" s="464">
+      <c r="F49" s="366">
         <f t="shared" si="28"/>
         <v>0.73014554522493769</v>
       </c>
-      <c r="G49" s="464" t="str">
+      <c r="G49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="H49" s="464" t="str">
+      <c r="H49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="I49" s="464" t="str">
+      <c r="I49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="J49" s="464" t="str">
+      <c r="J49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="K49" s="464" t="str">
+      <c r="K49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="L49" s="464" t="str">
+      <c r="L49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="M49" s="464" t="str">
+      <c r="M49" s="366" t="str">
         <f t="shared" si="28"/>
         <v/>
       </c>
@@ -8511,47 +8511,47 @@
       <c r="B50" s="139" t="s">
         <v>354</v>
       </c>
-      <c r="C50" s="465">
+      <c r="C50" s="367">
         <f>(C29+C21+C22)/C29</f>
         <v>2.7640367183719343</v>
       </c>
-      <c r="D50" s="465">
+      <c r="D50" s="367">
         <f>IF(D29="","",(D29+D21+D22)/D29)</f>
         <v>2.7786655942675393</v>
       </c>
-      <c r="E50" s="465">
+      <c r="E50" s="367">
         <f t="shared" ref="E50:M50" si="29">IF(E29="","",(E29+E21+E22)/E29)</f>
         <v>2.4282321241275633</v>
       </c>
-      <c r="F50" s="465">
+      <c r="F50" s="367">
         <f t="shared" si="29"/>
         <v>2.5118331879846907</v>
       </c>
-      <c r="G50" s="465" t="str">
+      <c r="G50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="H50" s="465" t="str">
+      <c r="H50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="I50" s="465" t="str">
+      <c r="I50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="J50" s="465" t="str">
+      <c r="J50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="K50" s="465" t="str">
+      <c r="K50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="L50" s="465" t="str">
+      <c r="L50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
-      <c r="M50" s="465" t="str">
+      <c r="M50" s="367" t="str">
         <f t="shared" si="29"/>
         <v/>
       </c>
@@ -8562,47 +8562,47 @@
       <c r="B51" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="C51" s="466">
+      <c r="C51" s="368">
         <f>C48*C49*C50</f>
         <v>9.3196316975319896E-2</v>
       </c>
-      <c r="D51" s="466">
+      <c r="D51" s="368">
         <f>IF(D48="","",D48*D49*D50)</f>
         <v>0.15332811757394069</v>
       </c>
-      <c r="E51" s="466">
+      <c r="E51" s="368">
         <f t="shared" ref="E51:M51" si="30">IF(E48="","",E48*E49*E50)</f>
         <v>0.18008005581917608</v>
       </c>
-      <c r="F51" s="466">
+      <c r="F51" s="368">
         <f t="shared" si="30"/>
         <v>0.22461187893596754</v>
       </c>
-      <c r="G51" s="466" t="str">
+      <c r="G51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="H51" s="466" t="str">
+      <c r="H51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="I51" s="466" t="str">
+      <c r="I51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="J51" s="466" t="str">
+      <c r="J51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="K51" s="466" t="str">
+      <c r="K51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="L51" s="466" t="str">
+      <c r="L51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
-      <c r="M51" s="466" t="str">
+      <c r="M51" s="368" t="str">
         <f t="shared" si="30"/>
         <v/>
       </c>
@@ -8610,50 +8610,50 @@
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1">
       <c r="A52" s="9"/>
-      <c r="B52" s="467" t="s">
+      <c r="B52" s="369" t="s">
         <v>356</v>
       </c>
-      <c r="C52" s="468">
+      <c r="C52" s="370">
         <f>C35*C51</f>
         <v>2.5343098101249361E-2</v>
       </c>
-      <c r="D52" s="468">
+      <c r="D52" s="370">
         <f>IF(D35="","",D35*D51)</f>
         <v>5.2487099126238432E-2</v>
       </c>
-      <c r="E52" s="468">
+      <c r="E52" s="370">
         <f t="shared" ref="E52:M52" si="31">IF(E35="","",E35*E51)</f>
         <v>3.9275362119115462E-3</v>
       </c>
-      <c r="F52" s="468" t="str">
+      <c r="F52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="G52" s="468" t="str">
+      <c r="G52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="H52" s="468" t="str">
+      <c r="H52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="I52" s="468" t="str">
+      <c r="I52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="J52" s="468" t="str">
+      <c r="J52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="K52" s="468" t="str">
+      <c r="K52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="L52" s="468" t="str">
+      <c r="L52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
-      <c r="M52" s="468" t="str">
+      <c r="M52" s="370" t="str">
         <f t="shared" si="31"/>
         <v/>
       </c>
@@ -10125,7 +10125,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D48:M52">
-    <cfRule type="containsBlanks" dxfId="0" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="1">
       <formula>LEN(TRIM(D48))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11167,11 +11167,11 @@
         <v>249</v>
       </c>
       <c r="C52" s="5"/>
-      <c r="D52" s="439">
+      <c r="D52" s="454">
         <f>D53+D54+D55</f>
         <v>1480163</v>
       </c>
-      <c r="E52" s="440"/>
+      <c r="E52" s="455"/>
       <c r="F52" s="53"/>
       <c r="G52" s="53"/>
     </row>
@@ -11180,11 +11180,11 @@
         <v>222</v>
       </c>
       <c r="C53" s="6"/>
-      <c r="D53" s="442">
+      <c r="D53" s="457">
         <f>SUM(I11:I13)+SUM(I28:I30)</f>
         <v>1480163</v>
       </c>
-      <c r="E53" s="372"/>
+      <c r="E53" s="450"/>
       <c r="F53" s="5"/>
       <c r="G53" s="5"/>
       <c r="H53" s="3" t="s">
@@ -11200,10 +11200,10 @@
         <v>129</v>
       </c>
       <c r="C54" s="6"/>
-      <c r="D54" s="449">
+      <c r="D54" s="464">
         <v>0</v>
       </c>
-      <c r="E54" s="365"/>
+      <c r="E54" s="411"/>
       <c r="F54" s="6" t="s">
         <v>130</v>
       </c>
@@ -11214,10 +11214,10 @@
         <v>128</v>
       </c>
       <c r="C55" s="6"/>
-      <c r="D55" s="449">
+      <c r="D55" s="464">
         <v>0</v>
       </c>
-      <c r="E55" s="365"/>
+      <c r="E55" s="411"/>
       <c r="F55" s="5" t="s">
         <v>131</v>
       </c>
@@ -11232,8 +11232,8 @@
         <v>132</v>
       </c>
       <c r="C57" s="5"/>
-      <c r="D57" s="441"/>
-      <c r="E57" s="441"/>
+      <c r="D57" s="456"/>
+      <c r="E57" s="456"/>
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
@@ -11279,11 +11279,11 @@
         <v>133</v>
       </c>
       <c r="C60" s="6"/>
-      <c r="D60" s="447">
+      <c r="D60" s="462">
         <f>((Dashboard!I6*Data!C4)+D52+E50-C58-C59)</f>
-        <v>2583353.5059200004</v>
-      </c>
-      <c r="E60" s="448"/>
+        <v>2569308.4064000007</v>
+      </c>
+      <c r="E60" s="463"/>
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
     </row>
@@ -11300,20 +11300,20 @@
       <c r="B63" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D63" s="445">
+      <c r="D63" s="460">
         <f>((C26-C11-C12-C14-C15-C16*G16-C19*G19-C20*G20)-I26)/Data!C7</f>
         <v>-6.0822099592825682E-2</v>
       </c>
-      <c r="E63" s="446"/>
+      <c r="E63" s="461"/>
     </row>
     <row r="64" spans="2:9" ht="15" customHeight="1">
       <c r="B64" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="D64" s="443">
+      <c r="D64" s="458">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E64" s="444"/>
+      <c r="E64" s="459"/>
       <c r="F64" s="250" t="s">
         <v>236</v>
       </c>
@@ -11322,10 +11322,10 @@
       <c r="B65" s="271" t="s">
         <v>252</v>
       </c>
-      <c r="D65" s="443">
+      <c r="D65" s="458">
         <v>8.5599999999999996E-2</v>
       </c>
-      <c r="E65" s="444"/>
+      <c r="E65" s="459"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -12852,17 +12852,17 @@
   </sheetData>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E23:E25">
-    <cfRule type="containsBlanks" dxfId="7" priority="2">
+    <cfRule type="containsBlanks" dxfId="6" priority="2">
       <formula>LEN(TRIM(E23))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G25 I25">
-    <cfRule type="containsBlanks" dxfId="6" priority="4">
+    <cfRule type="containsBlanks" dxfId="5" priority="4">
       <formula>LEN(TRIM(G25))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H18 H19 G20:H22">
-    <cfRule type="containsBlanks" dxfId="5" priority="10">
+    <cfRule type="containsBlanks" dxfId="4" priority="10">
       <formula>LEN(TRIM(G14))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="11">
@@ -12870,12 +12870,12 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:J25">
-    <cfRule type="containsBlanks" dxfId="4" priority="1">
+    <cfRule type="containsBlanks" dxfId="3" priority="1">
       <formula>LEN(TRIM(G14))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:J22">
-    <cfRule type="containsBlanks" dxfId="3" priority="6">
+    <cfRule type="containsBlanks" dxfId="2" priority="6">
       <formula>LEN(TRIM(I14))=0</formula>
     </cfRule>
     <cfRule type="containsBlanks" priority="7">
@@ -13251,7 +13251,7 @@
         <f>C17/(Dashboard!I5/Data!C4)</f>
         <v>-1.0538643730450405</v>
       </c>
-      <c r="E17" s="452" t="str">
+      <c r="E17" s="467" t="str">
         <f>IF(F18+G18=G16,"⇒","Error!")</f>
         <v>⇒</v>
       </c>
@@ -13274,7 +13274,7 @@
         <f>C18/(Dashboard!I5/Data!C4)</f>
         <v>-9.7635477630278831E-3</v>
       </c>
-      <c r="E18" s="452"/>
+      <c r="E18" s="467"/>
       <c r="F18" s="145">
         <f>D15+(MIN(D4,0)*Data!C$4/Dashboard!I5)</f>
         <v>0.95940438021189611</v>
@@ -13296,10 +13296,10 @@
         <f>B3</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="E20" s="453" t="s">
+      <c r="E20" s="468" t="s">
         <v>220</v>
       </c>
-      <c r="F20" s="453"/>
+      <c r="F20" s="468"/>
       <c r="G20" s="94"/>
     </row>
     <row r="21" spans="2:9" ht="15.75" customHeight="1">
@@ -13404,10 +13404,10 @@
       <c r="B26" s="26" t="s">
         <v>314</v>
       </c>
-      <c r="C26" s="450" t="s">
+      <c r="C26" s="465" t="s">
         <v>145</v>
       </c>
-      <c r="D26" s="451"/>
+      <c r="D26" s="466"/>
       <c r="E26" s="30" t="s">
         <v>210</v>
       </c>
@@ -14413,12 +14413,12 @@
   </mergeCells>
   <phoneticPr fontId="31" type="noConversion"/>
   <conditionalFormatting sqref="E4:F12">
-    <cfRule type="containsBlanks" dxfId="2" priority="5">
+    <cfRule type="containsBlanks" dxfId="1" priority="5">
       <formula>LEN(TRIM(E4))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:G23">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
